--- a/Test_2025-12-28_21-49.xlsx
+++ b/Test_2025-12-28_21-49.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ISOTRETINOIN 20MG 10 SOFT GELATIN CAPS.</t>
+    <t>CONA-ADIONE 10MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
     <t>0:0</t>
@@ -50,10 +50,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>300.0000</t>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
   </si>
   <si>
     <t>1:0</t>
